--- a/data_year/zb/公共管理、社会保障及其他/城镇基本医疗保险.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/城镇基本医疗保险.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,960 +456,662 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>城镇基本医疗保险年末参保人数</t>
+          <t>城镇居民医疗保险基金支出</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>城镇居民医疗保险基金支出</t>
+          <t>城镇居民医疗保险基金收入</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>城镇居民医疗保险基金收入</t>
+          <t>城镇居民医疗保险基金累计结余</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>城镇居民医疗保险基金累计结余</t>
+          <t>城镇居民基本医疗保险年末参保人数</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>城镇居民基本医疗保险年末参保人数</t>
+          <t>城镇职工医疗保险基金支出</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>城镇职工医疗保险基金支出</t>
+          <t>城镇职工医疗保险基金收入</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>城镇职工医疗保险基金收入</t>
+          <t>城镇职工医疗保险基金累计结余</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>城镇职工医疗保险基金累计结余</t>
+          <t>城镇职工基本医疗保险年末参保人数</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>城镇职工基本医疗保险年末参保人数</t>
+          <t>城镇退休人员基本医疗保险年末参保人数</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>城镇退休人员基本医疗保险年末参保人数</t>
+          <t>基本医疗保险年末参保人数</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2862.7811</v>
+        <v>17791.1617</v>
       </c>
       <c r="C2" t="n">
-        <v>124.5411</v>
+        <v>3538.1018</v>
       </c>
       <c r="D2" t="n">
-        <v>169.9984</v>
+        <v>4308.9289</v>
       </c>
       <c r="E2" t="n">
-        <v>109.8311</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3786.9495</v>
-      </c>
+        <v>5047.1175</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>19528.2695</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3271.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3955.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4741.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>23734.7</v>
+      </c>
       <c r="N2" t="n">
-        <v>3786.9495</v>
+        <v>5943.513</v>
       </c>
       <c r="O2" t="n">
-        <v>924.1684</v>
+        <v>43262.9442</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5470.7406</v>
+        <v>18948.4781</v>
       </c>
       <c r="C3" t="n">
-        <v>244.0989</v>
+        <v>4431.3731</v>
       </c>
       <c r="D3" t="n">
-        <v>383.6022</v>
+        <v>5539.1772</v>
       </c>
       <c r="E3" t="n">
-        <v>253.0088</v>
+        <v>6179.986</v>
       </c>
       <c r="F3" t="n">
-        <v>7285.9143</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+        <v>413.1029</v>
+      </c>
+      <c r="G3" t="n">
+        <v>594.1776</v>
+      </c>
+      <c r="H3" t="n">
+        <v>496.8264</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22116.1313</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4018.2702</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4944.9996</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5683.1596</v>
+      </c>
+      <c r="M3" t="n">
+        <v>25227.0965</v>
+      </c>
       <c r="N3" t="n">
-        <v>7285.91</v>
+        <v>6278.6184</v>
       </c>
       <c r="O3" t="n">
-        <v>1815.1737</v>
+        <v>47343.2277</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6925.8</v>
+        <v>19861.3225</v>
       </c>
       <c r="C4" t="n">
-        <v>409.3566</v>
+        <v>5543.6240791535</v>
       </c>
       <c r="D4" t="n">
-        <v>607.783</v>
+        <v>6938.6792730501</v>
       </c>
       <c r="E4" t="n">
-        <v>450.7138</v>
+        <v>7644.5123956047</v>
       </c>
       <c r="F4" t="n">
-        <v>9401.200000000001</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>675.1333570005</v>
+      </c>
+      <c r="G4" t="n">
+        <v>876.7602054498</v>
+      </c>
+      <c r="H4" t="n">
+        <v>760.2629841838</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27155.7024</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4868.4907221531</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6061.9190676003</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6884.2494114209</v>
+      </c>
+      <c r="M4" t="n">
+        <v>26485.5649</v>
+      </c>
       <c r="N4" t="n">
-        <v>9401.200000000001</v>
+        <v>6624.2424</v>
       </c>
       <c r="O4" t="n">
-        <v>2475.4</v>
+        <v>53641.2673</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7974.9</v>
+        <v>20501.2931</v>
       </c>
       <c r="C5" t="n">
-        <v>653.9</v>
+        <v>6801.0329</v>
       </c>
       <c r="D5" t="n">
-        <v>890</v>
+        <v>8248.2618</v>
       </c>
       <c r="E5" t="n">
-        <v>670.6</v>
+        <v>9116.4521</v>
       </c>
       <c r="F5" t="n">
-        <v>10901.7</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>971.1124</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1186.6365</v>
+      </c>
+      <c r="H5" t="n">
+        <v>987.1095</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29629.4316</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5829.9205</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7061.6253</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8129.3426</v>
+      </c>
+      <c r="M5" t="n">
+        <v>27443.1413</v>
+      </c>
       <c r="N5" t="n">
-        <v>10901.7</v>
+        <v>6941.8482</v>
       </c>
       <c r="O5" t="n">
-        <v>2926.8</v>
+        <v>57072.5729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9044.4</v>
+        <v>21041.2602</v>
       </c>
       <c r="C6" t="n">
-        <v>862.2</v>
+        <v>8133.5894</v>
       </c>
       <c r="D6" t="n">
-        <v>1140.5</v>
+        <v>9687.239299999999</v>
       </c>
       <c r="E6" t="n">
-        <v>957.9</v>
+        <v>10644.7686</v>
       </c>
       <c r="F6" t="n">
-        <v>12403.6</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>1436.99</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1649.3214</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1194.9797</v>
+      </c>
+      <c r="I6" t="n">
+        <v>31450.891</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6696.5994</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8037.9179</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9449.7889</v>
+      </c>
+      <c r="M6" t="n">
+        <v>28296.0331</v>
+      </c>
       <c r="N6" t="n">
-        <v>12403.7</v>
+        <v>7254.7729</v>
       </c>
       <c r="O6" t="n">
-        <v>3359.2</v>
+        <v>59746.9241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10021.7</v>
+        <v>21361.9533</v>
       </c>
       <c r="C7" t="n">
-        <v>1078.7</v>
+        <v>9312.1085</v>
       </c>
       <c r="D7" t="n">
-        <v>1405.3</v>
+        <v>11192.9144</v>
       </c>
       <c r="E7" t="n">
-        <v>1278.1</v>
+        <v>12542.8061</v>
       </c>
       <c r="F7" t="n">
-        <v>13782.9</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+        <v>1780.5977</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2109.3861</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1545.7044</v>
+      </c>
+      <c r="I7" t="n">
+        <v>37688.525</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7531.5108</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9083.5283</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10997.1017</v>
+      </c>
+      <c r="M7" t="n">
+        <v>28893.1249</v>
+      </c>
       <c r="N7" t="n">
-        <v>13782.8846</v>
+        <v>7531.1716</v>
       </c>
       <c r="O7" t="n">
-        <v>3761.2</v>
+        <v>66581.6499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11580.3</v>
+        <v>21719.9691</v>
       </c>
       <c r="C8" t="n">
-        <v>1276.7422</v>
+        <v>10767.0928</v>
       </c>
       <c r="D8" t="n">
-        <v>1747.1038</v>
+        <v>13084.2548</v>
       </c>
       <c r="E8" t="n">
-        <v>1752.3837</v>
+        <v>14964.3004</v>
       </c>
       <c r="F8" t="n">
-        <v>15731.8</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+        <v>2480.4138</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2810.5487</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1992.6326</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44860.0167</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8286.679</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10273.7061</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12971.6678</v>
+      </c>
+      <c r="M8" t="n">
+        <v>29531.5367</v>
+      </c>
       <c r="N8" t="n">
-        <v>15731.86</v>
+        <v>7811.5676</v>
       </c>
       <c r="O8" t="n">
-        <v>4151.5</v>
+        <v>74391.5534</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13420</v>
+        <v>22288.3839</v>
       </c>
       <c r="C9" t="n">
-        <v>1561.8</v>
+        <v>14421.8</v>
       </c>
       <c r="D9" t="n">
-        <v>2257.2</v>
+        <v>17931.3</v>
       </c>
       <c r="E9" t="n">
-        <v>2476.9</v>
+        <v>19385.6409</v>
       </c>
       <c r="F9" t="n">
-        <v>22311.1024</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+        <v>4954.809</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5653.2942</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3534.6373</v>
+      </c>
+      <c r="I9" t="n">
+        <v>87358.6514</v>
+      </c>
       <c r="J9" t="n">
-        <v>4291.1024</v>
+        <v>9466.8534</v>
       </c>
       <c r="K9" t="n">
-        <v>1551.6658</v>
+        <v>12278.2824</v>
       </c>
       <c r="L9" t="n">
-        <v>2214.2428</v>
+        <v>15851.0036</v>
       </c>
       <c r="M9" t="n">
-        <v>2440.7715</v>
+        <v>30322.7084</v>
       </c>
       <c r="N9" t="n">
-        <v>18020.2685</v>
+        <v>8034.3245</v>
       </c>
       <c r="O9" t="n">
-        <v>4600</v>
+        <v>117681.3598</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14987.7384</v>
+        <v>23307.5394</v>
       </c>
       <c r="C10" t="n">
-        <v>2083.6</v>
+        <v>17823</v>
       </c>
       <c r="D10" t="n">
-        <v>3040.4</v>
+        <v>21384.39</v>
       </c>
       <c r="E10" t="n">
-        <v>3431.7</v>
+        <v>23440</v>
       </c>
       <c r="F10" t="n">
-        <v>31821.627</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+        <v>7115.886342224</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7846.394118602</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4690.11126119</v>
+      </c>
+      <c r="I10" t="n">
+        <v>102777.7719</v>
+      </c>
       <c r="J10" t="n">
-        <v>11826</v>
+        <v>10706.59259287</v>
       </c>
       <c r="K10" t="n">
-        <v>2019.7</v>
+        <v>13537.84900609</v>
       </c>
       <c r="L10" t="n">
-        <v>2885.5</v>
+        <v>18749.8213199207</v>
       </c>
       <c r="M10" t="n">
-        <v>3303.6</v>
+        <v>31680.8375</v>
       </c>
       <c r="N10" t="n">
-        <v>19995.627</v>
+        <v>8373.2981</v>
       </c>
       <c r="O10" t="n">
-        <v>5007.8886</v>
+        <v>134458.6094</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16410.519</v>
+        <v>24224.3513</v>
       </c>
       <c r="C11" t="n">
-        <v>2797.4072</v>
+        <v>20854.2369971429</v>
       </c>
       <c r="D11" t="n">
-        <v>3671.895</v>
+        <v>24420.8846536798</v>
       </c>
       <c r="E11" t="n">
-        <v>4275.9468</v>
+        <v>27696.6823169258</v>
       </c>
       <c r="F11" t="n">
-        <v>40146.9728</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+        <v>8190.9888199954</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8575.467092536799</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5142.5467766445</v>
+      </c>
+      <c r="I11" t="n">
+        <v>102482.7305</v>
+      </c>
       <c r="J11" t="n">
-        <v>18209.5741</v>
+        <v>12663.2481771475</v>
       </c>
       <c r="K11" t="n">
-        <v>2630.1087</v>
+        <v>15845.417561143</v>
       </c>
       <c r="L11" t="n">
-        <v>3420.3064</v>
+        <v>22554.1355402813</v>
       </c>
       <c r="M11" t="n">
-        <v>4055.2336</v>
+        <v>32924.7077</v>
       </c>
       <c r="N11" t="n">
-        <v>21937.4177</v>
+        <v>8700.356400000001</v>
       </c>
       <c r="O11" t="n">
-        <v>5526.8987</v>
+        <v>135407.4382</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17791.1617</v>
+        <v>25428.8229</v>
       </c>
       <c r="C12" t="n">
-        <v>3538.1018</v>
+        <v>21032.0959251654</v>
       </c>
       <c r="D12" t="n">
-        <v>4308.9289</v>
+        <v>24846.1200902296</v>
       </c>
       <c r="E12" t="n">
-        <v>5047.1175</v>
+        <v>31499.9865966411</v>
       </c>
       <c r="F12" t="n">
-        <v>43262.9442</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+        <v>8165.1194154011</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9114.5372850734</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6076.5055162334</v>
+      </c>
+      <c r="I12" t="n">
+        <v>101676.0216</v>
+      </c>
       <c r="J12" t="n">
-        <v>19528.2695</v>
+        <v>12866.9765097643</v>
       </c>
       <c r="K12" t="n">
-        <v>3271.6</v>
+        <v>15731.5828051562</v>
       </c>
       <c r="L12" t="n">
-        <v>3955.4</v>
+        <v>25423.4810804077</v>
       </c>
       <c r="M12" t="n">
-        <v>4741.2</v>
+        <v>34455.1023</v>
       </c>
       <c r="N12" t="n">
-        <v>23734.7</v>
+        <v>9026.279399999999</v>
       </c>
       <c r="O12" t="n">
-        <v>5943.513</v>
+        <v>136131.1239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18948.4781</v>
+        <v>26106.4908</v>
       </c>
       <c r="C13" t="n">
-        <v>4431.3731</v>
+        <v>24048.1941510239</v>
       </c>
       <c r="D13" t="n">
-        <v>5539.1772</v>
+        <v>28731.9947972777</v>
       </c>
       <c r="E13" t="n">
-        <v>6179.986</v>
+        <v>36178.3408560792</v>
       </c>
       <c r="F13" t="n">
-        <v>47343.2277</v>
+        <v>9296.3731468964</v>
       </c>
       <c r="G13" t="n">
-        <v>413.1029</v>
+        <v>9724.475556944401</v>
       </c>
       <c r="H13" t="n">
-        <v>594.1776</v>
+        <v>6716.5759453626</v>
       </c>
       <c r="I13" t="n">
-        <v>496.8264</v>
+        <v>100865.885</v>
       </c>
       <c r="J13" t="n">
-        <v>22116.1313</v>
+        <v>14751.8210041275</v>
       </c>
       <c r="K13" t="n">
-        <v>4018.2702</v>
+        <v>19007.5192403333</v>
       </c>
       <c r="L13" t="n">
-        <v>4944.9996</v>
+        <v>29461.7649107166</v>
       </c>
       <c r="M13" t="n">
-        <v>5683.1596</v>
+        <v>35430.8567</v>
       </c>
       <c r="N13" t="n">
-        <v>25227.0965</v>
+        <v>9324.365900000001</v>
       </c>
       <c r="O13" t="n">
-        <v>6278.6184</v>
+        <v>136296.7417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>19861.3225</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5543.6240791535</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6938.6792730501</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7644.5123956047</v>
-      </c>
-      <c r="F14" t="n">
-        <v>53641.2673</v>
-      </c>
-      <c r="G14" t="n">
-        <v>675.1333570005</v>
-      </c>
-      <c r="H14" t="n">
-        <v>876.7602054498</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>760.2629841838</v>
-      </c>
-      <c r="J14" t="n">
-        <v>27155.7024</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4868.4907221531</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6061.9190676003</v>
-      </c>
+        <v>98328</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>6884.2494114209</v>
-      </c>
-      <c r="N14" t="n">
-        <v>26485.5649</v>
-      </c>
+        <v>36242</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>6624.2424</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>20501.2931</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6801.0329</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8248.2618</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9116.4521</v>
-      </c>
-      <c r="F15" t="n">
-        <v>57072.5729</v>
-      </c>
-      <c r="G15" t="n">
-        <v>971.1124</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1186.6365</v>
-      </c>
-      <c r="I15" t="n">
-        <v>987.1095</v>
-      </c>
-      <c r="J15" t="n">
-        <v>29629.4316</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5829.9205</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7061.6253</v>
-      </c>
-      <c r="M15" t="n">
-        <v>8129.3426</v>
-      </c>
-      <c r="N15" t="n">
-        <v>27443.1413</v>
-      </c>
-      <c r="O15" t="n">
-        <v>6941.8482</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>21041.2602</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8133.5894</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9687.239299999999</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10644.7686</v>
-      </c>
-      <c r="F16" t="n">
-        <v>59746.9241</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1436.99</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1649.3214</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1194.9797</v>
-      </c>
-      <c r="J16" t="n">
-        <v>31450.891</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6696.5994</v>
-      </c>
-      <c r="L16" t="n">
-        <v>8037.9179</v>
-      </c>
-      <c r="M16" t="n">
-        <v>9449.7889</v>
-      </c>
-      <c r="N16" t="n">
-        <v>28296.0331</v>
-      </c>
-      <c r="O16" t="n">
-        <v>7254.7729</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>21361.9533</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9312.1085</v>
-      </c>
-      <c r="D17" t="n">
-        <v>11192.9144</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12542.8061</v>
-      </c>
-      <c r="F17" t="n">
-        <v>66581.6499</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1780.5977</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2109.3861</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1545.7044</v>
-      </c>
-      <c r="J17" t="n">
-        <v>37688.525</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7531.5108</v>
-      </c>
-      <c r="L17" t="n">
-        <v>9083.5283</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10997.1017</v>
-      </c>
-      <c r="N17" t="n">
-        <v>28893.1249</v>
-      </c>
-      <c r="O17" t="n">
-        <v>7531.1716</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>21719.9691</v>
-      </c>
-      <c r="C18" t="n">
-        <v>10767.0928</v>
-      </c>
-      <c r="D18" t="n">
-        <v>13084.2548</v>
-      </c>
-      <c r="E18" t="n">
-        <v>14964.3004</v>
-      </c>
-      <c r="F18" t="n">
-        <v>74391.5534</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2480.4138</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2810.5487</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1992.6326</v>
-      </c>
-      <c r="J18" t="n">
-        <v>44860.0167</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8286.679</v>
-      </c>
-      <c r="L18" t="n">
-        <v>10273.7061</v>
-      </c>
-      <c r="M18" t="n">
-        <v>12971.6678</v>
-      </c>
-      <c r="N18" t="n">
-        <v>29531.5367</v>
-      </c>
-      <c r="O18" t="n">
-        <v>7811.5676</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>22288.3839</v>
-      </c>
-      <c r="C19" t="n">
-        <v>14421.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>17931.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>19385.6409</v>
-      </c>
-      <c r="F19" t="n">
-        <v>117681.3598</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4954.809</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5653.2942</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3534.6373</v>
-      </c>
-      <c r="J19" t="n">
-        <v>87358.6514</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9466.8534</v>
-      </c>
-      <c r="L19" t="n">
-        <v>12278.2824</v>
-      </c>
-      <c r="M19" t="n">
-        <v>15851.0036</v>
-      </c>
-      <c r="N19" t="n">
-        <v>30322.7084</v>
-      </c>
-      <c r="O19" t="n">
-        <v>8034.3245</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>23307.5394</v>
-      </c>
-      <c r="C20" t="n">
-        <v>17823</v>
-      </c>
-      <c r="D20" t="n">
-        <v>21384.39</v>
-      </c>
-      <c r="E20" t="n">
-        <v>23440</v>
-      </c>
-      <c r="F20" t="n">
-        <v>134458.6094</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7115.886342224</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7846.394118602</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4690.11126119</v>
-      </c>
-      <c r="J20" t="n">
-        <v>102777.7719</v>
-      </c>
-      <c r="K20" t="n">
-        <v>10706.59259287</v>
-      </c>
-      <c r="L20" t="n">
-        <v>13537.84900609</v>
-      </c>
-      <c r="M20" t="n">
-        <v>18749.8213199207</v>
-      </c>
-      <c r="N20" t="n">
-        <v>31680.8375</v>
-      </c>
-      <c r="O20" t="n">
-        <v>8373.2981</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>24224.3513</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20854.2369971429</v>
-      </c>
-      <c r="D21" t="n">
-        <v>24420.8846536798</v>
-      </c>
-      <c r="E21" t="n">
-        <v>27696.6823169258</v>
-      </c>
-      <c r="F21" t="n">
-        <v>135407.4382</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8190.9888199954</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8575.467092536799</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5142.5467766445</v>
-      </c>
-      <c r="J21" t="n">
-        <v>102482.7305</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12663.2481771475</v>
-      </c>
-      <c r="L21" t="n">
-        <v>15845.417561143</v>
-      </c>
-      <c r="M21" t="n">
-        <v>22554.1355402813</v>
-      </c>
-      <c r="N21" t="n">
-        <v>32924.7077</v>
-      </c>
-      <c r="O21" t="n">
-        <v>8700.356400000001</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>25428.8229</v>
-      </c>
-      <c r="C22" t="n">
-        <v>21032.0959251654</v>
-      </c>
-      <c r="D22" t="n">
-        <v>24846.1200902296</v>
-      </c>
-      <c r="E22" t="n">
-        <v>31499.9865966411</v>
-      </c>
-      <c r="F22" t="n">
-        <v>136131.1239</v>
-      </c>
-      <c r="G22" t="n">
-        <v>8165.1194154011</v>
-      </c>
-      <c r="H22" t="n">
-        <v>9114.5372850734</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6076.5055162334</v>
-      </c>
-      <c r="J22" t="n">
-        <v>101676.0216</v>
-      </c>
-      <c r="K22" t="n">
-        <v>12866.9765097643</v>
-      </c>
-      <c r="L22" t="n">
-        <v>15731.5828051562</v>
-      </c>
-      <c r="M22" t="n">
-        <v>25423.4810804077</v>
-      </c>
-      <c r="N22" t="n">
-        <v>34455.1023</v>
-      </c>
-      <c r="O22" t="n">
-        <v>9026.279399999999</v>
+        <v>134570</v>
       </c>
     </row>
   </sheetData>
